--- a/Code/Results/Cases/Case_2_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_73/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.32588021618845</v>
+        <v>17.9291237013249</v>
       </c>
       <c r="C2">
-        <v>13.00575556379646</v>
+        <v>10.65515354249863</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.252786770022764</v>
+        <v>15.61699124479144</v>
       </c>
       <c r="F2">
-        <v>24.60711263438889</v>
+        <v>36.1467693177711</v>
       </c>
       <c r="G2">
-        <v>2.080909892920328</v>
+        <v>3.641039648125945</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.77596198725357</v>
+        <v>22.94196388563391</v>
       </c>
       <c r="J2">
-        <v>5.076464907332314</v>
+        <v>7.569573444631312</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.518622498383616</v>
+        <v>13.09413966396252</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.78671977921545</v>
+        <v>22.68805403911152</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.69641152753087</v>
+        <v>17.27938774151178</v>
       </c>
       <c r="C3">
-        <v>12.42465723761604</v>
+        <v>10.42123317474463</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.213817565952482</v>
+        <v>15.64609786729766</v>
       </c>
       <c r="F3">
-        <v>24.17519951330983</v>
+        <v>36.23250906424054</v>
       </c>
       <c r="G3">
-        <v>2.086507374007219</v>
+        <v>3.643132908467952</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.14806194836524</v>
+        <v>23.10283232750196</v>
       </c>
       <c r="J3">
-        <v>5.063092666902184</v>
+        <v>7.570510956830328</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.167079151609167</v>
+        <v>13.04478854700499</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.85914956468726</v>
+        <v>22.81214387602837</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.63611484177381</v>
+        <v>16.86827079641165</v>
       </c>
       <c r="C4">
-        <v>12.05413268258076</v>
+        <v>10.27424903423727</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.194211244088228</v>
+        <v>15.66601940597313</v>
       </c>
       <c r="F4">
-        <v>23.93342798905356</v>
+        <v>36.29526626944796</v>
       </c>
       <c r="G4">
-        <v>2.090045177424552</v>
+        <v>3.644485713945827</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.39001380232314</v>
+        <v>23.2072778779854</v>
       </c>
       <c r="J4">
-        <v>5.055488606882077</v>
+        <v>7.571423973029622</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.947293927172034</v>
+        <v>13.01592461059121</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.92366635826815</v>
+        <v>22.89477091529578</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.18890926747168</v>
+        <v>16.69790280325673</v>
       </c>
       <c r="C5">
-        <v>11.89981989948194</v>
+        <v>10.21356765378022</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.187291783626028</v>
+        <v>15.67465341429354</v>
       </c>
       <c r="F5">
-        <v>23.8407560508341</v>
+        <v>36.32337519979434</v>
       </c>
       <c r="G5">
-        <v>2.09151293687221</v>
+        <v>3.645054029545829</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.49184482103503</v>
+        <v>23.25126705433989</v>
       </c>
       <c r="J5">
-        <v>5.052542657241039</v>
+        <v>7.571881252325176</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.856860183443777</v>
+        <v>13.00453120487604</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.95471983448041</v>
+        <v>22.93005487862413</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.11373495470263</v>
+        <v>16.66944924377189</v>
       </c>
       <c r="C6">
-        <v>11.87400007217531</v>
+        <v>10.20344600352394</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.186206957846082</v>
+        <v>15.67611824843167</v>
       </c>
       <c r="F6">
-        <v>23.82571979949152</v>
+        <v>36.32819551446477</v>
       </c>
       <c r="G6">
-        <v>2.091758251879803</v>
+        <v>3.645149428465611</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.50894494278043</v>
+        <v>23.25865761550288</v>
       </c>
       <c r="J6">
-        <v>5.052062717599823</v>
+        <v>7.571962341220847</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.841794976229103</v>
+        <v>13.0026618251816</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.9601558283607</v>
+        <v>22.93601100239907</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.63014503380008</v>
+        <v>16.86598431293348</v>
       </c>
       <c r="C7">
-        <v>12.05206482343793</v>
+        <v>10.27343375765641</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.194113614584628</v>
+        <v>15.66613375826072</v>
       </c>
       <c r="F7">
-        <v>23.93215455678514</v>
+        <v>36.29563510402616</v>
       </c>
       <c r="G7">
-        <v>2.090064865663246</v>
+        <v>3.644493309396547</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.39137422825157</v>
+        <v>23.2078653536728</v>
       </c>
       <c r="J7">
-        <v>5.055448257932777</v>
+        <v>7.571429794519095</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.946077658361565</v>
+        <v>13.01576945213145</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.92406623803442</v>
+        <v>22.8952402443284</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.77639541399927</v>
+        <v>17.70775105687143</v>
       </c>
       <c r="C8">
-        <v>12.80831373953455</v>
+        <v>10.57522923098505</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.238443921210953</v>
+        <v>15.62660195402019</v>
       </c>
       <c r="F8">
-        <v>24.45331105144765</v>
+        <v>36.174228900454</v>
       </c>
       <c r="G8">
-        <v>2.082819387495981</v>
+        <v>3.641747420012167</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.90136283509388</v>
+        <v>22.9962545016546</v>
       </c>
       <c r="J8">
-        <v>5.071728423018526</v>
+        <v>7.569826904257767</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.398295553306033</v>
+        <v>13.07682946833388</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.80736506343014</v>
+        <v>22.7295012714404</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.51488187279055</v>
+        <v>19.253032483317</v>
       </c>
       <c r="C9">
-        <v>14.17774637240148</v>
+        <v>11.13795973317194</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.360339853980662</v>
+        <v>15.56533006809712</v>
       </c>
       <c r="F9">
-        <v>25.66181582104175</v>
+        <v>36.01671638708815</v>
       </c>
       <c r="G9">
-        <v>2.069378409952685</v>
+        <v>3.636896126459893</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.0557792334075</v>
+        <v>22.62626243978206</v>
       </c>
       <c r="J9">
-        <v>5.108456537591226</v>
+        <v>7.569344167591739</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.24923449906001</v>
+        <v>13.20764129032455</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.75007539963106</v>
+        <v>22.45579352087245</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.98074360718157</v>
+        <v>20.3138492535002</v>
       </c>
       <c r="C10">
-        <v>15.10980979739368</v>
+        <v>11.5306099632594</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.472081839871732</v>
+        <v>15.53019803199958</v>
       </c>
       <c r="F10">
-        <v>26.66312956207782</v>
+        <v>35.95049870907373</v>
       </c>
       <c r="G10">
-        <v>2.059921510050041</v>
+        <v>3.633653578576229</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.5188237183293</v>
+        <v>22.38181245892528</v>
       </c>
       <c r="J10">
-        <v>5.138357042513837</v>
+        <v>7.570589784105695</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.84728531195959</v>
+        <v>13.3100312917006</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.82955313032774</v>
+        <v>22.28631208298763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.04287638855597</v>
+        <v>20.77851123028084</v>
       </c>
       <c r="C11">
-        <v>15.5170769653996</v>
+        <v>11.7041461225618</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.527901809715603</v>
+        <v>15.51635655054137</v>
       </c>
       <c r="F11">
-        <v>27.14296762419714</v>
+        <v>35.93118910620026</v>
       </c>
       <c r="G11">
-        <v>2.055698319534287</v>
+        <v>3.632247574311912</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.2967518386467</v>
+        <v>22.27654653485375</v>
       </c>
       <c r="J11">
-        <v>5.152590071210374</v>
+        <v>7.571499277838702</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.11260014075379</v>
+        <v>13.35786951540654</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.89563014065567</v>
+        <v>22.21614684116147</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.43661853851292</v>
+        <v>20.95176945132978</v>
       </c>
       <c r="C12">
-        <v>15.66885511629462</v>
+        <v>11.7690853927443</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.549769116230667</v>
+        <v>15.51142240063053</v>
       </c>
       <c r="F12">
-        <v>27.32813223346529</v>
+        <v>35.92543557474305</v>
       </c>
       <c r="G12">
-        <v>2.054109391267569</v>
+        <v>3.631725030005859</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.21624594444585</v>
+        <v>22.23753865309666</v>
       </c>
       <c r="J12">
-        <v>5.15807015938281</v>
+        <v>7.571892572309132</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.21204220619846</v>
+        <v>13.37615645759096</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.92522992111137</v>
+        <v>22.19058005978973</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.35219385469542</v>
+        <v>20.91457704065622</v>
       </c>
       <c r="C13">
-        <v>15.63627620338366</v>
+        <v>11.75513470005</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.545026966512278</v>
+        <v>15.5124713975991</v>
       </c>
       <c r="F13">
-        <v>27.28810044191825</v>
+        <v>35.92660533453916</v>
       </c>
       <c r="G13">
-        <v>2.054451154402996</v>
+        <v>3.631837130691768</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.23341777482807</v>
+        <v>22.24590170520774</v>
       </c>
       <c r="J13">
-        <v>5.156885912605437</v>
+        <v>7.571805701595537</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.19067204780057</v>
+        <v>13.37221055896821</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.91864724739251</v>
+        <v>22.19604160158109</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.07543881300846</v>
+        <v>20.79282003590228</v>
       </c>
       <c r="C14">
-        <v>15.52961302504393</v>
+        <v>11.70950449091812</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.529686157734528</v>
+        <v>15.51594445864906</v>
       </c>
       <c r="F14">
-        <v>27.15813210129008</v>
+        <v>35.93068450585542</v>
       </c>
       <c r="G14">
-        <v>2.055567397141436</v>
+        <v>3.632204386572437</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.29005417011002</v>
+        <v>22.27332021333639</v>
       </c>
       <c r="J14">
-        <v>5.153039112991299</v>
+        <v>7.571530656990951</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.12080216993352</v>
+        <v>13.35937060901212</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.89797205946983</v>
+        <v>22.21402330318703</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.90481924048127</v>
+        <v>20.71788544301934</v>
       </c>
       <c r="C15">
-        <v>15.46395939397116</v>
+        <v>11.68145247399249</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.520384825503191</v>
+        <v>15.51811181678166</v>
       </c>
       <c r="F15">
-        <v>27.07897221632943</v>
+        <v>35.93338618219568</v>
       </c>
       <c r="G15">
-        <v>2.056252437883034</v>
+        <v>3.63243062646595</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.32522567781611</v>
+        <v>22.29022607975326</v>
       </c>
       <c r="J15">
-        <v>5.150694591068299</v>
+        <v>7.571368538653636</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.07786960233389</v>
+        <v>13.35152783287814</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.88591200904322</v>
+        <v>22.22516845899834</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.91014039838904</v>
+        <v>20.2831111578823</v>
       </c>
       <c r="C16">
-        <v>15.08285359233063</v>
+        <v>11.51916283298844</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.468535302172173</v>
+        <v>15.53114563551543</v>
       </c>
       <c r="F16">
-        <v>26.63225738927977</v>
+        <v>35.9519785640221</v>
       </c>
       <c r="G16">
-        <v>2.060199004881676</v>
+        <v>3.633746849391537</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.53381572372008</v>
+        <v>22.38881131429243</v>
       </c>
       <c r="J16">
-        <v>5.137439546061266</v>
+        <v>7.570537210476787</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.82980553945331</v>
+        <v>13.30692949942557</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.82586077432445</v>
+        <v>22.29103759394415</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.28474637070476</v>
+        <v>20.01171085044856</v>
       </c>
       <c r="C17">
-        <v>14.84473988198117</v>
+        <v>11.41826906955696</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.438013719344058</v>
+        <v>15.53968932732566</v>
       </c>
       <c r="F17">
-        <v>26.36441787655204</v>
+        <v>35.96615684968599</v>
       </c>
       <c r="G17">
-        <v>2.062639569697599</v>
+        <v>3.634571958514206</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.66772613169766</v>
+        <v>22.45081072960247</v>
       </c>
       <c r="J17">
-        <v>5.129469367791331</v>
+        <v>7.570114738819407</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.67585515611196</v>
+        <v>13.27988594744259</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.79688494919045</v>
+        <v>22.33322633254587</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.91941987623053</v>
+        <v>19.8539291996639</v>
       </c>
       <c r="C18">
-        <v>14.7062096095889</v>
+        <v>11.35976168912563</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.42092731497843</v>
+        <v>15.5448049135279</v>
       </c>
       <c r="F18">
-        <v>26.21265682734516</v>
+        <v>35.97532945614642</v>
       </c>
       <c r="G18">
-        <v>2.064050801009682</v>
+        <v>3.635053041449921</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.74680938937917</v>
+        <v>22.48702980120863</v>
       </c>
       <c r="J18">
-        <v>5.124944563117241</v>
+        <v>7.569904040600256</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.58667513409677</v>
+        <v>13.26445044696105</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.78301952243499</v>
+        <v>22.35814433860338</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.79475881339765</v>
+        <v>19.80022265802365</v>
       </c>
       <c r="C19">
-        <v>14.65903677966596</v>
+        <v>11.33987175524182</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.415222287696395</v>
+        <v>15.54657158056453</v>
       </c>
       <c r="F19">
-        <v>26.16166816503911</v>
+        <v>35.9786097928337</v>
       </c>
       <c r="G19">
-        <v>2.064529935042603</v>
+        <v>3.635217046115526</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.7739285890545</v>
+        <v>22.4993888916247</v>
       </c>
       <c r="J19">
-        <v>5.123422761632306</v>
+        <v>7.569838261244362</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.55637372767936</v>
+        <v>13.25924501946618</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.77879735161624</v>
+        <v>22.36669296265045</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.3519011518049</v>
+        <v>20.04077663499483</v>
       </c>
       <c r="C20">
-        <v>14.87025067400146</v>
+        <v>11.42905897426833</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.441214184367229</v>
+        <v>15.53875898736981</v>
       </c>
       <c r="F20">
-        <v>26.39269279791746</v>
+        <v>35.96454219587246</v>
       </c>
       <c r="G20">
-        <v>2.062379000163507</v>
+        <v>3.634483451670419</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.65325509949772</v>
+        <v>22.44415296478121</v>
       </c>
       <c r="J20">
-        <v>5.130311658916355</v>
+        <v>7.570156372075829</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.69230928130848</v>
+        <v>13.28275250819203</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.7996775775665</v>
+        <v>22.32866772715618</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.15695733821263</v>
+        <v>20.82865718143167</v>
       </c>
       <c r="C21">
-        <v>15.56100919063182</v>
+        <v>11.72292856118796</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.534172231860888</v>
+        <v>15.51491599966842</v>
       </c>
       <c r="F21">
-        <v>27.19621335193838</v>
+        <v>35.92944403050435</v>
       </c>
       <c r="G21">
-        <v>2.055239258568086</v>
+        <v>3.632096246900361</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.2733178435804</v>
+        <v>22.26524354976376</v>
       </c>
       <c r="J21">
-        <v>5.15416656252027</v>
+        <v>7.571610120746668</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.14135291986206</v>
+        <v>13.36313743292652</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.90391849877771</v>
+        <v>22.20871436235601</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.28738032439212</v>
+        <v>21.32780344964625</v>
       </c>
       <c r="C22">
-        <v>15.99819884827876</v>
+        <v>11.91045330284324</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.59918311413626</v>
+        <v>15.50112427963678</v>
       </c>
       <c r="F22">
-        <v>27.74151298819903</v>
+        <v>35.91559098601471</v>
       </c>
       <c r="G22">
-        <v>2.050632540978028</v>
+        <v>3.630593630035658</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.04614954381309</v>
+        <v>22.15329423198942</v>
       </c>
       <c r="J22">
-        <v>5.170283552903943</v>
+        <v>7.572844996245652</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.42882434842367</v>
+        <v>13.41666948964527</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.99884633597808</v>
+        <v>22.13616869212285</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.68852594463663</v>
+        <v>21.06288028597202</v>
       </c>
       <c r="C23">
-        <v>15.76617692625858</v>
+        <v>11.81079659673272</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.564092106446433</v>
+        <v>15.50832145785632</v>
       </c>
       <c r="F23">
-        <v>27.44864502671259</v>
+        <v>35.92215234309478</v>
       </c>
       <c r="G23">
-        <v>2.05308614732129</v>
+        <v>3.631390354628738</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.16531149540554</v>
+        <v>22.21258796912053</v>
       </c>
       <c r="J23">
-        <v>5.161633579259891</v>
+        <v>7.572160001689249</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.27596101188982</v>
+        <v>13.38801053671219</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.94564218578505</v>
+        <v>22.17435023511753</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.32155848396361</v>
+        <v>20.02764143508803</v>
       </c>
       <c r="C24">
-        <v>14.85872233614083</v>
+        <v>11.42418241927021</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.439765819583519</v>
+        <v>15.53917895951833</v>
       </c>
       <c r="F24">
-        <v>26.3799027773966</v>
+        <v>35.96526899978658</v>
       </c>
       <c r="G24">
-        <v>2.062496778287156</v>
+        <v>3.634523444688342</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.65979095261431</v>
+        <v>22.44716114983148</v>
       </c>
       <c r="J24">
-        <v>5.129930680413594</v>
+        <v>7.570137449382369</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.6848724596265</v>
+        <v>13.28145618587351</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.79840635123769</v>
+        <v>22.33072660745455</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.55327100845414</v>
+        <v>18.84741735236711</v>
       </c>
       <c r="C25">
-        <v>13.82000389105235</v>
+        <v>10.98916925574701</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.323527011120678</v>
+        <v>15.58016819594602</v>
       </c>
       <c r="F25">
-        <v>25.31488492412413</v>
+        <v>36.05065848301183</v>
       </c>
       <c r="G25">
-        <v>2.072937332232689</v>
+        <v>3.638151787156346</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.2708869949615</v>
+        <v>22.72154421189933</v>
       </c>
       <c r="J25">
-        <v>5.098007508043241</v>
+        <v>7.569192149936386</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.02346498795692</v>
+        <v>13.17111481076837</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.74544171697684</v>
+        <v>22.52431163288054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_73/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.9291237013249</v>
+        <v>24.32588021618848</v>
       </c>
       <c r="C2">
-        <v>10.65515354249863</v>
+        <v>13.00575556379636</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.61699124479144</v>
+        <v>9.252786770022764</v>
       </c>
       <c r="F2">
-        <v>36.1467693177711</v>
+        <v>24.60711263438897</v>
       </c>
       <c r="G2">
-        <v>3.641039648125945</v>
+        <v>2.080909892920462</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.94196388563391</v>
+        <v>12.77596198725359</v>
       </c>
       <c r="J2">
-        <v>7.569573444631312</v>
+        <v>5.076464907332345</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.09413966396252</v>
+        <v>9.518622498383644</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.68805403911152</v>
+        <v>13.78671977921548</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.27938774151178</v>
+        <v>22.69641152753086</v>
       </c>
       <c r="C3">
-        <v>10.42123317474463</v>
+        <v>12.42465723761602</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.64609786729766</v>
+        <v>9.213817565952482</v>
       </c>
       <c r="F3">
-        <v>36.23250906424054</v>
+        <v>24.17519951330988</v>
       </c>
       <c r="G3">
-        <v>3.643132908467952</v>
+        <v>2.086507374007353</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.10283232750196</v>
+        <v>13.1480619483653</v>
       </c>
       <c r="J3">
-        <v>7.570510956830328</v>
+        <v>5.063092666902184</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.04478854700499</v>
+        <v>9.167079151609176</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.81214387602837</v>
+        <v>13.85914956468728</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.86827079641165</v>
+        <v>21.63611484177381</v>
       </c>
       <c r="C4">
-        <v>10.27424903423727</v>
+        <v>12.05413268258075</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.66601940597313</v>
+        <v>9.194211244088118</v>
       </c>
       <c r="F4">
-        <v>36.29526626944796</v>
+        <v>23.93342798905346</v>
       </c>
       <c r="G4">
-        <v>3.644485713945827</v>
+        <v>2.090045177424419</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.2072778779854</v>
+        <v>13.39001380232307</v>
       </c>
       <c r="J4">
-        <v>7.571423973029622</v>
+        <v>5.055488606882049</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.01592461059121</v>
+        <v>8.947293927171962</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.89477091529578</v>
+        <v>13.92366635826806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.69790280325673</v>
+        <v>21.18890926747168</v>
       </c>
       <c r="C5">
-        <v>10.21356765378022</v>
+        <v>11.89981989948193</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.67465341429354</v>
+        <v>9.187291783626087</v>
       </c>
       <c r="F5">
-        <v>36.32337519979434</v>
+        <v>23.84075605083412</v>
       </c>
       <c r="G5">
-        <v>3.645054029545829</v>
+        <v>2.09151293687221</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.25126705433989</v>
+        <v>13.49184482103505</v>
       </c>
       <c r="J5">
-        <v>7.571881252325176</v>
+        <v>5.052542657241101</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.00453120487604</v>
+        <v>8.856860183443816</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.93005487862413</v>
+        <v>13.95471983448045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.66944924377189</v>
+        <v>21.11373495470265</v>
       </c>
       <c r="C6">
-        <v>10.20344600352394</v>
+        <v>11.87400007217509</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.67611824843167</v>
+        <v>9.186206957846039</v>
       </c>
       <c r="F6">
-        <v>36.32819551446477</v>
+        <v>23.82571979949154</v>
       </c>
       <c r="G6">
-        <v>3.645149428465611</v>
+        <v>2.091758251879803</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.25865761550288</v>
+        <v>13.50894494278035</v>
       </c>
       <c r="J6">
-        <v>7.571962341220847</v>
+        <v>5.052062717599854</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.0026618251816</v>
+        <v>8.841794976229142</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.93601100239907</v>
+        <v>13.96015582836072</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.86598431293348</v>
+        <v>21.63014503380005</v>
       </c>
       <c r="C7">
-        <v>10.27343375765641</v>
+        <v>12.05206482343798</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.66613375826072</v>
+        <v>9.194113614584687</v>
       </c>
       <c r="F7">
-        <v>36.29563510402616</v>
+        <v>23.93215455678522</v>
       </c>
       <c r="G7">
-        <v>3.644493309396547</v>
+        <v>2.090064865663245</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.2078653536728</v>
+        <v>13.39137422825177</v>
       </c>
       <c r="J7">
-        <v>7.571429794519095</v>
+        <v>5.055448257932967</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.01576945213145</v>
+        <v>8.946077658361604</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.8952402443284</v>
+        <v>13.9240662380346</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.70775105687143</v>
+        <v>23.77639541399926</v>
       </c>
       <c r="C8">
-        <v>10.57522923098505</v>
+        <v>12.80831373953452</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.62660195402019</v>
+        <v>9.238443921210852</v>
       </c>
       <c r="F8">
-        <v>36.174228900454</v>
+        <v>24.45331105144775</v>
       </c>
       <c r="G8">
-        <v>3.641747420012167</v>
+        <v>2.082819387495848</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.9962545016546</v>
+        <v>12.90136283509398</v>
       </c>
       <c r="J8">
-        <v>7.569826904257767</v>
+        <v>5.071728423018556</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.07682946833388</v>
+        <v>9.39829555330603</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.7295012714404</v>
+        <v>13.80736506343026</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.253032483317</v>
+        <v>27.51488187279056</v>
       </c>
       <c r="C9">
-        <v>11.13795973317194</v>
+        <v>14.1777463724013</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.56533006809712</v>
+        <v>9.360339853980676</v>
       </c>
       <c r="F9">
-        <v>36.01671638708815</v>
+        <v>25.6618158210418</v>
       </c>
       <c r="G9">
-        <v>3.636896126459893</v>
+        <v>2.069378409952553</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.62626243978206</v>
+        <v>12.05577923340747</v>
       </c>
       <c r="J9">
-        <v>7.569344167591739</v>
+        <v>5.10845653759122</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.20764129032455</v>
+        <v>10.24923449906004</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.45579352087245</v>
+        <v>13.7500753996311</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.3138492535002</v>
+        <v>29.98074360718158</v>
       </c>
       <c r="C10">
-        <v>11.5306099632594</v>
+        <v>15.10980979739368</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.53019803199958</v>
+        <v>9.472081839871798</v>
       </c>
       <c r="F10">
-        <v>35.95049870907373</v>
+        <v>26.66312956207792</v>
       </c>
       <c r="G10">
-        <v>3.633653578576229</v>
+        <v>2.059921510050174</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.38181245892528</v>
+        <v>11.51882371832941</v>
       </c>
       <c r="J10">
-        <v>7.570589784105695</v>
+        <v>5.138357042513746</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.3100312917006</v>
+        <v>10.84728531195959</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.28631208298763</v>
+        <v>13.82955313032777</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.77851123028084</v>
+        <v>31.04287638855599</v>
       </c>
       <c r="C11">
-        <v>11.7041461225618</v>
+        <v>15.51707696539949</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.51635655054137</v>
+        <v>9.527901809715519</v>
       </c>
       <c r="F11">
-        <v>35.93118910620026</v>
+        <v>27.1429676241971</v>
       </c>
       <c r="G11">
-        <v>3.632247574311912</v>
+        <v>2.055698319534155</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.27654653485375</v>
+        <v>11.29675183864665</v>
       </c>
       <c r="J11">
-        <v>7.571499277838702</v>
+        <v>5.152590071210377</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.35786951540654</v>
+        <v>11.11260014075376</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.21614684116147</v>
+        <v>13.89563014065567</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.95176945132978</v>
+        <v>31.43661853851293</v>
       </c>
       <c r="C12">
-        <v>11.7690853927443</v>
+        <v>15.66885511629442</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.51142240063053</v>
+        <v>9.549769116230667</v>
       </c>
       <c r="F12">
-        <v>35.92543557474305</v>
+        <v>27.32813223346534</v>
       </c>
       <c r="G12">
-        <v>3.631725030005859</v>
+        <v>2.054109391267436</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.23753865309666</v>
+        <v>11.21624594444585</v>
       </c>
       <c r="J12">
-        <v>7.571892572309132</v>
+        <v>5.158070159382807</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.37615645759096</v>
+        <v>11.2120422061985</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.19058005978973</v>
+        <v>13.92522992111144</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.91457704065622</v>
+        <v>31.35219385469538</v>
       </c>
       <c r="C13">
-        <v>11.75513470005</v>
+        <v>15.6362762033837</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.5124713975991</v>
+        <v>9.545026966512291</v>
       </c>
       <c r="F13">
-        <v>35.92660533453916</v>
+        <v>27.28810044191836</v>
       </c>
       <c r="G13">
-        <v>3.631837130691768</v>
+        <v>2.054451154403398</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.24590170520774</v>
+        <v>11.2334177748282</v>
       </c>
       <c r="J13">
-        <v>7.571805701595537</v>
+        <v>5.156885912605436</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.37221055896821</v>
+        <v>11.19067204780059</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.19604160158109</v>
+        <v>13.9186472473926</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.79282003590228</v>
+        <v>31.07543881300843</v>
       </c>
       <c r="C14">
-        <v>11.70950449091812</v>
+        <v>15.52961302504381</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.51594445864906</v>
+        <v>9.529686157734579</v>
       </c>
       <c r="F14">
-        <v>35.93068450585542</v>
+        <v>27.15813210129014</v>
       </c>
       <c r="G14">
-        <v>3.632204386572437</v>
+        <v>2.055567397141436</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.27332021333639</v>
+        <v>11.29005417011005</v>
       </c>
       <c r="J14">
-        <v>7.571530656990951</v>
+        <v>5.153039112991261</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.35937060901212</v>
+        <v>11.12080216993356</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.21402330318703</v>
+        <v>13.89797205946985</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.71788544301934</v>
+        <v>30.90481924048134</v>
       </c>
       <c r="C15">
-        <v>11.68145247399249</v>
+        <v>15.46395939397098</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.51811181678166</v>
+        <v>9.520384825503243</v>
       </c>
       <c r="F15">
-        <v>35.93338618219568</v>
+        <v>27.0789722163294</v>
       </c>
       <c r="G15">
-        <v>3.63243062646595</v>
+        <v>2.0562524378829</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.29022607975326</v>
+        <v>11.32522567781597</v>
       </c>
       <c r="J15">
-        <v>7.571368538653636</v>
+        <v>5.150694591068299</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.35152783287814</v>
+        <v>11.07786960233389</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.22516845899834</v>
+        <v>13.88591200904315</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.2831111578823</v>
+        <v>29.910140398389</v>
       </c>
       <c r="C16">
-        <v>11.51916283298844</v>
+        <v>15.08285359233066</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.53114563551543</v>
+        <v>9.468535302172119</v>
       </c>
       <c r="F16">
-        <v>35.9519785640221</v>
+        <v>26.63225738927989</v>
       </c>
       <c r="G16">
-        <v>3.633746849391537</v>
+        <v>2.060199004881809</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.38881131429243</v>
+        <v>11.53381572372034</v>
       </c>
       <c r="J16">
-        <v>7.570537210476787</v>
+        <v>5.137439546061352</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.30692949942557</v>
+        <v>10.82980553945326</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.29103759394415</v>
+        <v>13.82586077432462</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.01171085044856</v>
+        <v>29.28474637070474</v>
       </c>
       <c r="C17">
-        <v>11.41826906955696</v>
+        <v>14.84473988198106</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.53968932732566</v>
+        <v>9.438013719343941</v>
       </c>
       <c r="F17">
-        <v>35.96615684968599</v>
+        <v>26.36441787655215</v>
       </c>
       <c r="G17">
-        <v>3.634571958514206</v>
+        <v>2.062639569697329</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.45081072960247</v>
+        <v>11.66772613169785</v>
       </c>
       <c r="J17">
-        <v>7.570114738819407</v>
+        <v>5.129469367791359</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.27988594744259</v>
+        <v>10.67585515611192</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.33322633254587</v>
+        <v>13.79688494919062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.8539291996639</v>
+        <v>28.91941987623055</v>
       </c>
       <c r="C18">
-        <v>11.35976168912563</v>
+        <v>14.7062096095889</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.5448049135279</v>
+        <v>9.420927314978426</v>
       </c>
       <c r="F18">
-        <v>35.97532945614642</v>
+        <v>26.21265682734504</v>
       </c>
       <c r="G18">
-        <v>3.635053041449921</v>
+        <v>2.064050801009948</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.48702980120863</v>
+        <v>11.74680938937907</v>
       </c>
       <c r="J18">
-        <v>7.569904040600256</v>
+        <v>5.124944563117246</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.26445044696105</v>
+        <v>10.58667513409675</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.35814433860338</v>
+        <v>13.7830195224349</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.80022265802365</v>
+        <v>28.79475881339766</v>
       </c>
       <c r="C19">
-        <v>11.33987175524182</v>
+        <v>14.65903677966591</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.54657158056453</v>
+        <v>9.415222287696304</v>
       </c>
       <c r="F19">
-        <v>35.9786097928337</v>
+        <v>26.16166816503916</v>
       </c>
       <c r="G19">
-        <v>3.635217046115526</v>
+        <v>2.064529935042602</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.4993888916247</v>
+        <v>11.77392858905449</v>
       </c>
       <c r="J19">
-        <v>7.569838261244362</v>
+        <v>5.123422761632203</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.25924501946618</v>
+        <v>10.55637372767935</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.36669296265045</v>
+        <v>13.77879735161625</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.04077663499483</v>
+        <v>29.3519011518049</v>
       </c>
       <c r="C20">
-        <v>11.42905897426833</v>
+        <v>14.87025067400125</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.53875898736981</v>
+        <v>9.441214184367183</v>
       </c>
       <c r="F20">
-        <v>35.96454219587246</v>
+        <v>26.39269279791753</v>
       </c>
       <c r="G20">
-        <v>3.634483451670419</v>
+        <v>2.06237900016364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.44415296478121</v>
+        <v>11.65325509949783</v>
       </c>
       <c r="J20">
-        <v>7.570156372075829</v>
+        <v>5.130311658916411</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.28275250819203</v>
+        <v>10.69230928130849</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.32866772715618</v>
+        <v>13.79967757756665</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.82865718143167</v>
+        <v>31.15695733821261</v>
       </c>
       <c r="C21">
-        <v>11.72292856118796</v>
+        <v>15.56100919063174</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.51491599966842</v>
+        <v>9.534172231860881</v>
       </c>
       <c r="F21">
-        <v>35.92944403050435</v>
+        <v>27.19621335193843</v>
       </c>
       <c r="G21">
-        <v>3.632096246900361</v>
+        <v>2.055239258567818</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.26524354976376</v>
+        <v>11.27331784358042</v>
       </c>
       <c r="J21">
-        <v>7.571610120746668</v>
+        <v>5.1541665625202</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.36313743292652</v>
+        <v>11.14135291986207</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.20871436235601</v>
+        <v>13.90391849877775</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.32780344964625</v>
+        <v>32.2873803243921</v>
       </c>
       <c r="C22">
-        <v>11.91045330284324</v>
+        <v>15.99819884827873</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.50112427963678</v>
+        <v>9.599183114136265</v>
       </c>
       <c r="F22">
-        <v>35.91559098601471</v>
+        <v>27.74151298819909</v>
       </c>
       <c r="G22">
-        <v>3.630593630035658</v>
+        <v>2.050632540977893</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.15329423198942</v>
+        <v>11.04614954381313</v>
       </c>
       <c r="J22">
-        <v>7.572844996245652</v>
+        <v>5.170283552903937</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.41666948964527</v>
+        <v>11.42882434842367</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.13616869212285</v>
+        <v>13.99884633597813</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.06288028597202</v>
+        <v>31.68852594463663</v>
       </c>
       <c r="C23">
-        <v>11.81079659673272</v>
+        <v>15.76617692625847</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.50832145785632</v>
+        <v>9.564092106446479</v>
       </c>
       <c r="F23">
-        <v>35.92215234309478</v>
+        <v>27.44864502671269</v>
       </c>
       <c r="G23">
-        <v>3.631390354628738</v>
+        <v>2.053086147321158</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.21258796912053</v>
+        <v>11.16531149540556</v>
       </c>
       <c r="J23">
-        <v>7.572160001689249</v>
+        <v>5.161633579259891</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.38801053671219</v>
+        <v>11.27596101188984</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.17435023511753</v>
+        <v>13.9456421857851</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.02764143508803</v>
+        <v>29.32155848396365</v>
       </c>
       <c r="C24">
-        <v>11.42418241927021</v>
+        <v>14.85872233614075</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.53917895951833</v>
+        <v>9.439765819583563</v>
       </c>
       <c r="F24">
-        <v>35.96526899978658</v>
+        <v>26.37990277739666</v>
       </c>
       <c r="G24">
-        <v>3.634523444688342</v>
+        <v>2.062496778287156</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.44716114983148</v>
+        <v>11.65979095261421</v>
       </c>
       <c r="J24">
-        <v>7.570137449382369</v>
+        <v>5.129930680413536</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.28145618587351</v>
+        <v>10.68487245962653</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.33072660745455</v>
+        <v>13.79840635123763</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.84741735236711</v>
+        <v>26.55327100845409</v>
       </c>
       <c r="C25">
-        <v>10.98916925574701</v>
+        <v>13.82000389105241</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.58016819594602</v>
+        <v>9.32352701112079</v>
       </c>
       <c r="F25">
-        <v>36.05065848301183</v>
+        <v>25.31488492412427</v>
       </c>
       <c r="G25">
-        <v>3.638151787156346</v>
+        <v>2.072937332232687</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.72154421189933</v>
+        <v>12.27088699496159</v>
       </c>
       <c r="J25">
-        <v>7.569192149936386</v>
+        <v>5.098007508043201</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.17111481076837</v>
+        <v>10.02346498795693</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.52431163288054</v>
+        <v>13.7454417169769</v>
       </c>
     </row>
   </sheetData>
